--- a/分工.xlsx
+++ b/分工.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>姓名</t>
   </si>
@@ -73,6 +73,9 @@
     <t>四个按钮功能实现与测试</t>
   </si>
   <si>
+    <t>ui美化</t>
+  </si>
+  <si>
     <t>两个server功能测试</t>
   </si>
   <si>
@@ -113,15 +116,6 @@
   </si>
   <si>
     <t>悬赏栏</t>
-  </si>
-  <si>
-    <t>问题生成保存文件到本地功能（半个任务</t>
-  </si>
-  <si>
-    <t>主界面ui美化（半个</t>
-  </si>
-  <si>
-    <t>messagelist界面ui美化（半个</t>
   </si>
   <si>
     <t>引入K-means算法，减少关键词领域漂移率（一个</t>
@@ -1094,7 +1088,7 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1106,15 +1100,15 @@
       </c>
       <c r="B3" s="1">
         <f>B2/(B2+C2+D2)</f>
-        <v>0.8</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="C3" s="1">
         <f>C2/(B2+C2+D2)</f>
-        <v>0.1</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D3" s="1">
         <f>D2/(B2+C2+D2)</f>
-        <v>0.1</v>
+        <v>0.0952380952380952</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1146,91 +1140,83 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
         <v>29</v>
-      </c>
-      <c r="D33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
